--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="200">
   <si>
     <t>土地坐落</t>
   </si>
@@ -447,6 +447,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -475,6 +484,9 @@
   </si>
   <si>
     <t>143，《290</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
   </si>
   <si>
     <t>名</t>
@@ -2467,13 +2479,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
@@ -2492,13 +2504,22 @@
       <c r="G1" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -2513,15 +2534,24 @@
         <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>151</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2538,13 +2568,22 @@
       <c r="G3" s="2">
         <v>34400</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -2559,15 +2598,24 @@
         <v>128</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -2584,13 +2632,22 @@
       <c r="G5" s="2">
         <v>225960</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -2605,15 +2662,24 @@
         <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -2628,7 +2694,16 @@
         <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -2646,22 +2721,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2669,14 +2744,14 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2686,22 +2761,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2709,7 +2784,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2728,16 +2803,16 @@
         <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2747,16 +2822,16 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2766,16 +2841,16 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2785,16 +2860,16 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2804,16 +2879,16 @@
         <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2823,16 +2898,16 @@
         <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2842,16 +2917,16 @@
         <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2874,19 +2949,19 @@
         <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2894,22 +2969,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="202">
   <si>
     <t>土地坐落</t>
   </si>
@@ -447,6 +447,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -471,19 +474,22 @@
     <t>國揚實業股份有限公司</t>
   </si>
   <si>
-    <t>中國合成橡膠股份有限公 司</t>
-  </si>
-  <si>
-    <t>7,250,000</t>
-  </si>
-  <si>
-    <t>9,000,000</t>
-  </si>
-  <si>
-    <t>1,500,000</t>
-  </si>
-  <si>
-    <t>143，《290</t>
+    <t>中國合成橡膠股份有限公司</t>
+  </si>
+  <si>
+    <t>7250000</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>143《290</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-23</t>
@@ -2479,13 +2485,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
@@ -2513,13 +2519,16 @@
       <c r="J1" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -2534,24 +2543,27 @@
         <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2569,21 +2581,24 @@
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -2598,24 +2613,27 @@
         <v>128</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -2633,21 +2651,24 @@
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -2662,24 +2683,27 @@
         <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -2694,15 +2718,18 @@
         <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>828</v>
       </c>
     </row>
@@ -2721,22 +2748,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2744,14 +2771,14 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2761,22 +2788,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2784,7 +2811,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2803,16 +2830,16 @@
         <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2822,16 +2849,16 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2841,16 +2868,16 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2860,16 +2887,16 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2879,16 +2906,16 @@
         <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2898,16 +2925,16 @@
         <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2917,16 +2944,16 @@
         <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2949,19 +2976,19 @@
         <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2969,22 +2996,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="207">
   <si>
     <t>土地坐落</t>
   </si>
@@ -450,6 +450,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -459,6 +462,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -486,13 +495,19 @@
     <t>1500000</t>
   </si>
   <si>
-    <t>143《290</t>
+    <t>143290</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmpf421</t>
   </si>
   <si>
     <t>名</t>
@@ -2485,13 +2500,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
@@ -2522,13 +2537,22 @@
       <c r="K1" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -2543,27 +2567,36 @@
         <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2581,24 +2614,33 @@
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -2613,27 +2655,36 @@
         <v>128</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -2651,24 +2702,33 @@
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -2683,27 +2743,36 @@
         <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -2718,19 +2787,28 @@
         <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>828</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2748,22 +2826,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2771,14 +2849,14 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2788,22 +2866,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2811,7 +2889,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2830,16 +2908,16 @@
         <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2849,16 +2927,16 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2868,16 +2946,16 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2887,16 +2965,16 @@
         <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2906,16 +2984,16 @@
         <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2925,16 +3003,16 @@
         <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2944,16 +3022,16 @@
         <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2976,19 +3054,19 @@
         <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2996,22 +3074,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,9 +19,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="207">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="201">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市萬華區福星段一小段00910000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00010019地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00090001地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00080002地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070003地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070004地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00080051地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440002地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440004地號</t>
+  </si>
+  <si>
+    <t>嘉義縣叶子市安福段11440005地號.</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11420000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11430001</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10660000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10950000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10640000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市新庄段重劃小段02240000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣杯子市牛挑灣段松梅小段10890000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段00550000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10630000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段01850000地號</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>.全部</t>
+  </si>
+  <si>
+    <t>38280分之775</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>廖素惠</t>
+  </si>
+  <si>
+    <t>陳明文</t>
+  </si>
+  <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
+    <t>97年06月23日</t>
+  </si>
+  <si>
+    <t>97年05月23日</t>
+  </si>
+  <si>
+    <t>93年07月13曰</t>
+  </si>
+  <si>
+    <t>93年07月13日</t>
+  </si>
+  <si>
+    <t>97年05月</t>
+  </si>
+  <si>
+    <t>97年06月24日</t>
+  </si>
+  <si>
+    <t>99年06月03日</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>033貝賣</t>
+  </si>
+  <si>
+    <t>21780045</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>2700000</t>
+  </si>
+  <si>
+    <t>1920000</t>
+  </si>
+  <si>
+    <t>2712600</t>
+  </si>
+  <si>
+    <t>1890000</t>
+  </si>
+  <si>
+    <t>1950000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>4554000</t>
+  </si>
+  <si>
+    <t>4248000</t>
+  </si>
+  <si>
+    <t>6084000</t>
+  </si>
+  <si>
+    <t>2106000</t>
+  </si>
+  <si>
+    <t>2682000</t>
+  </si>
+  <si>
+    <t>23666499</t>
+  </si>
+  <si>
+    <t>1309000</t>
+  </si>
+  <si>
+    <t>1731000</t>
+  </si>
+  <si>
+    <t>3761350</t>
+  </si>
+  <si>
+    <t>2082500</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmpf421</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,297 +273,90 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段一小段 0091-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 0001-0019 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 0009-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0008-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0003 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0004 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0008-0051 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0004 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣叶子市安福段1144-0005 地號 .</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1142-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1143-0001</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1066-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1095-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1064-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市新庄段重劃小段 0224-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣杯子市牛挑灣段松梅小 段1089-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段0055-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1063-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段0185-0000地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>236-</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>.全部</t>
-  </si>
-  <si>
-    <t>'全部</t>
-  </si>
-  <si>
-    <t>38280分之 775</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>廖素惠</t>
-  </si>
-  <si>
-    <t>陳明文</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>97年05月 30日</t>
-  </si>
-  <si>
-    <t>97年06月 23日</t>
-  </si>
-  <si>
-    <t>97年05月 23日</t>
-  </si>
-  <si>
-    <t>93年07月 13曰</t>
-  </si>
-  <si>
-    <t>93年07月 13日</t>
-  </si>
-  <si>
-    <t>97年05月</t>
-  </si>
-  <si>
-    <t>97年06月 24日</t>
-  </si>
-  <si>
-    <t>99年06月 03日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>033 貝賣</t>
-  </si>
-  <si>
-    <t>21,780,045</t>
-  </si>
-  <si>
-    <t>30，000</t>
-  </si>
-  <si>
-    <t>2，700，000</t>
-  </si>
-  <si>
-    <t>1’920，000</t>
-  </si>
-  <si>
-    <t>2,712,600</t>
-  </si>
-  <si>
-    <t>1,890,000 ^</t>
-  </si>
-  <si>
-    <t>1,950，000</t>
-  </si>
-  <si>
-    <t>300，000</t>
-  </si>
-  <si>
-    <t>4，554’000</t>
-  </si>
-  <si>
-    <t>4,248,000</t>
-  </si>
-  <si>
-    <t>6’084，000</t>
-  </si>
-  <si>
-    <t>2,106,000</t>
-  </si>
-  <si>
-    <t>2，682，000</t>
-  </si>
-  <si>
-    <t>23,666,499</t>
-  </si>
-  <si>
-    <t>1,309,000</t>
-  </si>
-  <si>
-    <t>1,731,000</t>
-  </si>
-  <si>
-    <t>3,761,350</t>
-  </si>
-  <si>
-    <t>2,082,500</t>
+    <t>臺北市萬華區福星段00132000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義由末廣段四小段00797000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00551000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00552000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>類</t>
+  </si>
+  <si>
+    <t>總嘲數</t>
+  </si>
+  <si>
+    <t>廖秦惠</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>船籍港</t>
+  </si>
+  <si>
+    <t>98年04月01日</t>
+  </si>
+  <si>
+    <t>97年09月18日</t>
+  </si>
+  <si>
+    <t>97年09月30日</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺，）</t>
-  </si>
-  <si>
-    <t>臺北市萬華區福星段00132-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 00272-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義由末廣段四小段 00797-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 00969-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00551 -000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00552-000 建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>廖秦惠</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>98年04月 01日</t>
-  </si>
-  <si>
-    <t>97年09月 18日</t>
-  </si>
-  <si>
-    <t>97年09月 30日</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>2,807,400</t>
-  </si>
-  <si>
-    <t>1,371,200</t>
-  </si>
-  <si>
-    <t>1,456,500</t>
+    <t>2807400</t>
+  </si>
+  <si>
+    <t>1371200</t>
+  </si>
+  <si>
+    <t>1456500</t>
   </si>
   <si>
     <t>奐動原因</t>
   </si>
   <si>
-    <t>登記（取 得）原因</t>
-  </si>
-  <si>
     <t>形</t>
   </si>
   <si>
@@ -357,9 +381,6 @@
     <t>台灣銀行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行 _</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
@@ -396,9 +417,6 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>活期儲蓄存款•</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -417,22 +435,16 @@
     <t>糜素惠</t>
   </si>
   <si>
-    <t>5,018.43</t>
-  </si>
-  <si>
-    <t>• 1,426</t>
-  </si>
-  <si>
-    <t>3,029,815</t>
-  </si>
-  <si>
-    <t>152,635.55</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>5018.43</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>3029815</t>
+  </si>
+  <si>
+    <t>152635.55</t>
   </si>
   <si>
     <t>quantity</t>
@@ -447,27 +459,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -501,15 +492,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-23</t>
-  </si>
-  <si>
-    <t>tmpf421</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -528,16 +510,16 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶'古董、字畫及多</t>
-  </si>
-  <si>
-    <t>財產種 類_</t>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>朱銘雕刻</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -549,19 +531,19 @@
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
-  </si>
-  <si>
-    <t>保 險名稱</t>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>得意還本終身</t>
   </si>
   <si>
-    <t>新富貴保本投資鏈結型保險 第7期</t>
+    <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
     <t>創世變額萬能壽險</t>
@@ -570,7 +552,7 @@
     <t>安泰增額養老壽險</t>
   </si>
   <si>
-    <t>台灣人壽富利長紅利率變動 型年金保險</t>
+    <t>台灣人壽富利長紅利率變動型年金保險</t>
   </si>
   <si>
     <t>件</t>
@@ -582,25 +564,25 @@
     <t>陳〇廷</t>
   </si>
   <si>
-    <t>1額：新臺幣500, 000元）</t>
-  </si>
-  <si>
-    <t>備 註</t>
-  </si>
-  <si>
-    <t>88.05.07-^108.05.7</t>
-  </si>
-  <si>
-    <t>100.06.13--106.06.12</t>
-  </si>
-  <si>
-    <t>94.12.30--100.12.30</t>
-  </si>
-  <si>
-    <t>94.12.30--100.12.30(被保 人:陳〇廷）</t>
-  </si>
-  <si>
-    <t>86.04.10--101.04.10</t>
+    <t>1額：新臺幣500000元）</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>88.05.07108.05.7</t>
+  </si>
+  <si>
+    <t>100.06.13106.06.12</t>
+  </si>
+  <si>
+    <t>94.12.30100.12.30</t>
+  </si>
+  <si>
+    <t>94.12.30100.12.30(被保人:陳〇廷）</t>
+  </si>
+  <si>
+    <t>86.04.10101.04.10</t>
   </si>
   <si>
     <t>97.05.19</t>
@@ -630,16 +612,16 @@
     <t>一般借款</t>
   </si>
   <si>
-    <t>嘉義縣朴子市農會本會 嘉義縣朴子市山通路</t>
-  </si>
-  <si>
-    <t>7,425,233</t>
-  </si>
-  <si>
-    <t>98年12月 20日</t>
-  </si>
-  <si>
-    <t>償還擔保債 務&amp;房屋整 修&amp;新建房 屋</t>
+    <t>嘉義縣朴子市農會本會嘉義縣朴子市山通路</t>
+  </si>
+  <si>
+    <t>7425233</t>
+  </si>
+  <si>
+    <t>98年12月20日</t>
+  </si>
+  <si>
+    <t>償還擔保債務&amp;房屋整修&amp;新建房屋</t>
   </si>
 </sst>
 </file>
@@ -998,13 +980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,629 +1008,1107 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>828</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>828</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>828</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>828</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>828</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>828</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>828</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>828</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>828</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>828</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>8.11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2">
         <v>145980</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>828</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>10.89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2">
         <v>196020</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="2">
+        <v>828</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>828</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="2">
+        <v>828</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="2">
+        <v>828</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>27297</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2">
+        <v>828</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2">
         <v>8948</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2">
+        <v>828</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>1540</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="2">
+        <v>828</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>34</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>2308</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2">
+        <v>828</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="2">
         <v>33</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>4425</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="2">
+        <v>828</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>1264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2">
         <v>872160</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="2">
+        <v>828</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>2450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="2">
+        <v>828</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>1337</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H24" s="2">
         <v>568225</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>72</v>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="2">
+        <v>828</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1666,49 +2126,49 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>353.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
         <v>492300</v>
@@ -1717,25 +2177,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <v>163.18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>363300</v>
@@ -1744,52 +2204,52 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2">
         <v>954.39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2">
         <v>300.11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2">
         <v>878600</v>
@@ -1798,139 +2258,139 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2">
         <v>404.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2">
         <v>216.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1948,39 +2408,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1989,19 +2449,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2010,19 +2470,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2031,19 +2491,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2052,19 +2512,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2073,19 +2533,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2094,19 +2554,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2115,19 +2575,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2136,19 +2596,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2157,19 +2617,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2178,19 +2638,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2199,19 +2659,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2220,19 +2680,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2241,19 +2701,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2262,19 +2722,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2283,19 +2743,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2304,19 +2764,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2325,19 +2785,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2346,19 +2806,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2367,19 +2827,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2388,19 +2848,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2409,19 +2869,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2430,67 +2890,67 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2508,54 +2968,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2">
         <v>725000</v>
@@ -2564,42 +3024,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>3440</v>
@@ -2608,42 +3068,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>900000</v>
@@ -2652,42 +3112,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>22596</v>
@@ -2696,42 +3156,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>150000</v>
@@ -2740,42 +3200,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
         <v>14329</v>
@@ -2784,31 +3244,31 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2">
         <v>828</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2826,77 +3286,77 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <v>500000</v>
@@ -2905,133 +3365,133 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3051,45 +3511,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="180">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段一小段00910000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>嘉義市嘉義市末廣段五小段00010019地號</t>
@@ -132,9 +135,6 @@
     <t>嘉義縣朴子市牛挑灣段松梅小段01850000地號</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -153,234 +153,219 @@
     <t>陳明文</t>
   </si>
   <si>
+    <t>97年06月23日</t>
+  </si>
+  <si>
+    <t>97年05月23日</t>
+  </si>
+  <si>
+    <t>93年07月13曰</t>
+  </si>
+  <si>
+    <t>93年07月13日</t>
+  </si>
+  <si>
+    <t>97年05月</t>
+  </si>
+  <si>
+    <t>97年06月24日</t>
+  </si>
+  <si>
+    <t>99年06月03日</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>033貝賣</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>2700000</t>
+  </si>
+  <si>
+    <t>1920000</t>
+  </si>
+  <si>
+    <t>2712600</t>
+  </si>
+  <si>
+    <t>1890000</t>
+  </si>
+  <si>
+    <t>1950000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>4554000</t>
+  </si>
+  <si>
+    <t>4248000</t>
+  </si>
+  <si>
+    <t>6084000</t>
+  </si>
+  <si>
+    <t>2106000</t>
+  </si>
+  <si>
+    <t>2682000</t>
+  </si>
+  <si>
+    <t>23666499</t>
+  </si>
+  <si>
+    <t>1309000</t>
+  </si>
+  <si>
+    <t>1731000</t>
+  </si>
+  <si>
+    <t>3761350</t>
+  </si>
+  <si>
+    <t>2082500</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmpf421</t>
+  </si>
+  <si>
+    <t>臺北市萬華區福星段00132000建號</t>
+  </si>
+  <si>
+    <t>廖秦惠</t>
+  </si>
+  <si>
     <t>97年05月30日</t>
   </si>
   <si>
-    <t>97年06月23日</t>
-  </si>
-  <si>
-    <t>97年05月23日</t>
-  </si>
-  <si>
-    <t>93年07月13曰</t>
-  </si>
-  <si>
-    <t>93年07月13日</t>
-  </si>
-  <si>
-    <t>97年05月</t>
-  </si>
-  <si>
-    <t>97年06月24日</t>
-  </si>
-  <si>
-    <t>99年06月03日</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>033貝賣</t>
-  </si>
-  <si>
-    <t>21780045</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>2700000</t>
-  </si>
-  <si>
-    <t>1920000</t>
-  </si>
-  <si>
-    <t>2712600</t>
-  </si>
-  <si>
-    <t>1890000</t>
-  </si>
-  <si>
-    <t>1950000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>4554000</t>
-  </si>
-  <si>
-    <t>4248000</t>
-  </si>
-  <si>
-    <t>6084000</t>
-  </si>
-  <si>
-    <t>2106000</t>
-  </si>
-  <si>
-    <t>2682000</t>
-  </si>
-  <si>
-    <t>23666499</t>
-  </si>
-  <si>
-    <t>1309000</t>
-  </si>
-  <si>
-    <t>1731000</t>
-  </si>
-  <si>
-    <t>3761350</t>
-  </si>
-  <si>
-    <t>2082500</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-23</t>
-  </si>
-  <si>
-    <t>tmpf421</t>
-  </si>
-  <si>
-    <t>建物標示</t>
+    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義由末廣段四小段00797000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00551000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00552000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>類</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
+    <t>總嘲數</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
     <t>權利範圍(持分）</t>
   </si>
   <si>
+    <t>船籍港</t>
+  </si>
+  <si>
+    <t>98年04月01日</t>
+  </si>
+  <si>
+    <t>97年09月18日</t>
+  </si>
+  <si>
+    <t>97年09月30日</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
     <t>所有權人</t>
   </si>
   <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>變動時間</t>
+  </si>
+  <si>
     <t>登記（取得）時間</t>
   </si>
   <si>
+    <t>2807400</t>
+  </si>
+  <si>
+    <t>1371200</t>
+  </si>
+  <si>
+    <t>1456500</t>
+  </si>
+  <si>
+    <t>奐動原因</t>
+  </si>
+  <si>
     <t>登記（取得）原因</t>
   </si>
   <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>變動時之價額</t>
+  </si>
+  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段00132000建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義由末廣段四小段00797000建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00551000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00552000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>廖秦惠</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>98年04月01日</t>
-  </si>
-  <si>
-    <t>97年09月18日</t>
-  </si>
-  <si>
-    <t>97年09月30日</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>2807400</t>
-  </si>
-  <si>
-    <t>1371200</t>
-  </si>
-  <si>
-    <t>1456500</t>
-  </si>
-  <si>
-    <t>奐動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額歲折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台灣銀行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
@@ -414,18 +399,12 @@
     <t>玉山商業銀行東嘉義分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>.新臺幣</t>
   </si>
   <si>
@@ -456,12 +435,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>亞太電信股份有限公司</t>
-  </si>
-  <si>
     <t>統聯</t>
   </si>
   <si>
@@ -477,9 +450,6 @@
     <t>中國合成橡膠股份有限公司</t>
   </si>
   <si>
-    <t>7250000</t>
-  </si>
-  <si>
     <t>9000000</t>
   </si>
   <si>
@@ -492,27 +462,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
     <t>(九）珠寶古董字畫及多</t>
   </si>
   <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣500000元）</t>
+  </si>
+  <si>
     <t>財產種類</t>
   </si>
   <si>
@@ -531,9 +489,6 @@
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
     <t>項</t>
   </si>
   <si>
@@ -564,7 +519,10 @@
     <t>陳〇廷</t>
   </si>
   <si>
-    <t>1額：新臺幣500000元）</t>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>備註</t>
@@ -586,27 +544,6 @@
   </si>
   <si>
     <t>97.05.19</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>一般借款</t>
@@ -980,13 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,16 +966,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
@@ -1050,19 +993,19 @@
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>43</v>
@@ -1071,21 +1014,27 @@
         <v>828</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -1094,22 +1043,22 @@
         <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>43</v>
@@ -1118,21 +1067,27 @@
         <v>828</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
@@ -1144,19 +1099,19 @@
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>43</v>
@@ -1165,21 +1120,27 @@
         <v>828</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
@@ -1188,22 +1149,22 @@
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>43</v>
@@ -1212,21 +1173,27 @@
         <v>828</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
@@ -1235,22 +1202,22 @@
         <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>43</v>
@@ -1259,45 +1226,51 @@
         <v>828</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>43</v>
@@ -1306,45 +1279,51 @@
         <v>828</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
@@ -1353,21 +1332,27 @@
         <v>828</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -1382,16 +1367,16 @@
         <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>43</v>
@@ -1400,21 +1385,27 @@
         <v>828</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -1429,16 +1420,16 @@
         <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>43</v>
@@ -1447,21 +1438,27 @@
         <v>828</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -1470,22 +1467,22 @@
         <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="H11" s="2">
+        <v>145980</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>43</v>
@@ -1494,21 +1491,27 @@
         <v>828</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>8.11</v>
+        <v>10.89</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
@@ -1520,19 +1523,19 @@
         <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
-        <v>145980</v>
+        <v>196020</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>43</v>
@@ -1541,21 +1544,27 @@
         <v>828</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>10.89</v>
+        <v>338</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
@@ -1564,22 +1573,22 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2">
-        <v>196020</v>
+        <v>51</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>43</v>
@@ -1588,21 +1597,27 @@
         <v>828</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
@@ -1611,22 +1626,22 @@
         <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>43</v>
@@ -1635,21 +1650,27 @@
         <v>828</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>38</v>
@@ -1658,22 +1679,22 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>43</v>
@@ -1682,21 +1703,27 @@
         <v>828</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>149</v>
+        <v>27297</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
@@ -1705,22 +1732,22 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>43</v>
@@ -1729,45 +1756,51 @@
         <v>828</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>27297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>27297</v>
+        <v>520</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8948</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>43</v>
@@ -1776,45 +1809,51 @@
         <v>828</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0202455590386625</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10.5276907001045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>520</v>
+        <v>1540</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="2">
-        <v>8948</v>
+        <v>51</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>43</v>
@@ -1823,21 +1862,27 @@
         <v>828</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>1540</v>
+        <v>2308</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -1846,22 +1891,22 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>43</v>
@@ -1870,45 +1915,51 @@
         <v>828</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>2308</v>
+        <v>4425</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>43</v>
@@ -1917,21 +1968,27 @@
         <v>828</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>4425</v>
+        <v>1264</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -1940,22 +1997,22 @@
         <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="2">
+        <v>872160</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>43</v>
@@ -1964,21 +2021,27 @@
         <v>828</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>1264</v>
+        <v>2450</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>38</v>
@@ -1987,22 +2050,22 @@
         <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="2">
-        <v>872160</v>
+        <v>52</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>43</v>
@@ -2011,45 +2074,51 @@
         <v>828</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>2450</v>
+        <v>1337</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="2">
+        <v>568225</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>43</v>
@@ -2058,57 +2127,16 @@
         <v>828</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1337</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="2">
-        <v>568225</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="2">
-        <v>828</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="2">
-        <v>37</v>
+      <c r="P23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>668.5</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +2146,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2126,64 +2154,64 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1">
+        <v>353.36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
+      </c>
+      <c r="H1" s="1">
+        <v>492300</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
-        <v>353.36</v>
+        <v>163.18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
-        <v>492300</v>
+        <v>363300</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
-        <v>163.18</v>
+        <v>954.39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -2192,25 +2220,25 @@
         <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="2">
-        <v>363300</v>
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
-        <v>954.39</v>
+        <v>300.11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
@@ -2219,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>878600</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2">
-        <v>300.11</v>
+        <v>404.75</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
@@ -2246,25 +2274,25 @@
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H5" s="2">
-        <v>878600</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2">
-        <v>404.75</v>
+        <v>216.6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
@@ -2273,124 +2301,97 @@
         <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2">
-        <v>216.6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +2401,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2408,549 +2409,526 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>43</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>42661</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>42661</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>21409</v>
+        <v>15335</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>15335</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2902</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>382</v>
+        <v>43147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>43147</v>
+        <v>50151</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>50151</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>308</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1234</v>
+        <v>584741</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>584741</v>
+        <v>93148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>93148</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>8434</v>
+        <v>28410</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>28410</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>104</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>10000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>58000</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>34002</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>2844</v>
+        <v>11224</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>11224</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>2744</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>1179</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>1813</v>
+      <c r="G23" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>97</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +2938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,16 +2952,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3009,34 +2987,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="2">
-        <v>725000</v>
+        <v>3440</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -3045,42 +3023,42 @@
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="2">
-        <v>3440</v>
+        <v>900000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="2">
-        <v>34400</v>
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -3089,42 +3067,42 @@
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="2">
-        <v>900000</v>
+        <v>22596</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
+      </c>
+      <c r="G4" s="2">
+        <v>225960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -3133,42 +3111,42 @@
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="2">
-        <v>22596</v>
+        <v>150000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="2">
-        <v>225960</v>
+        <v>114</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>43</v>
@@ -3177,42 +3155,42 @@
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>150000</v>
+        <v>14329</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>43</v>
@@ -3221,53 +3199,9 @@
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2">
-        <v>14329</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="2">
-        <v>828</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="2">
         <v>109</v>
       </c>
     </row>
@@ -3278,7 +3212,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,215 +3220,192 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>135</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3503,53 +3414,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>145</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市萬華區福星段一小段00910000地號</t>
+  </si>
+  <si>
     <t>嘉義市嘉義市末廣段五小段00010019地號</t>
   </si>
   <si>
@@ -153,6 +156,9 @@
     <t>陳明文</t>
   </si>
   <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
     <t>97年06月23日</t>
   </si>
   <si>
@@ -183,6 +189,9 @@
     <t>033貝賣</t>
   </si>
   <si>
+    <t>21780045</t>
+  </si>
+  <si>
     <t>30000</t>
   </si>
   <si>
@@ -249,60 +258,24 @@
     <t>臺北市萬華區福星段00132000建號</t>
   </si>
   <si>
+    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義由末廣段四小段00797000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00551000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00552000建號</t>
+  </si>
+  <si>
     <t>廖秦惠</t>
   </si>
   <si>
-    <t>97年05月30日</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義由末廣段四小段00797000建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00551000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00552000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
     <t>98年04月01日</t>
   </si>
   <si>
@@ -312,217 +285,193 @@
     <t>97年09月30日</t>
   </si>
   <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>2807400</t>
+  </si>
+  <si>
+    <t>1371200</t>
+  </si>
+  <si>
+    <t>1456500</t>
+  </si>
+  <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>台灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市農會</t>
+  </si>
+  <si>
+    <t>新加坡商星展銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>香港上海匯豐銀行銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行東嘉義分行</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>.新臺幣</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>糜素惠</t>
+  </si>
+  <si>
+    <t>5018.43</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>3029815</t>
+  </si>
+  <si>
+    <t>152635.55</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>亞太電信股份有限公司</t>
+  </si>
+  <si>
+    <t>統聯</t>
+  </si>
+  <si>
+    <t>東立</t>
+  </si>
+  <si>
+    <t>民興國際開發</t>
+  </si>
+  <si>
+    <t>國揚實業股份有限公司</t>
+  </si>
+  <si>
+    <t>中國合成橡膠股份有限公司</t>
+  </si>
+  <si>
+    <t>7250000</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>143290</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣500000元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>朱銘雕刻</t>
+  </si>
+  <si>
+    <t>保險公司</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>得意還本終身</t>
+  </si>
+  <si>
+    <t>新富貴保本投資鏈結型保險第7期</t>
+  </si>
+  <si>
+    <t>創世變額萬能壽險</t>
+  </si>
+  <si>
+    <t>安泰增額養老壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽富利長紅利率變動型年金保險</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>陳〇廷</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>2807400</t>
-  </si>
-  <si>
-    <t>1371200</t>
-  </si>
-  <si>
-    <t>1456500</t>
-  </si>
-  <si>
-    <t>奐動原因</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>台灣銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>台灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市農會</t>
-  </si>
-  <si>
-    <t>新加坡商星展銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>香港上海匯豐銀行銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>.新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>糜素惠</t>
-  </si>
-  <si>
-    <t>5018.43</t>
-  </si>
-  <si>
-    <t>1426</t>
-  </si>
-  <si>
-    <t>3029815</t>
-  </si>
-  <si>
-    <t>152635.55</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>統聯</t>
-  </si>
-  <si>
-    <t>東立</t>
-  </si>
-  <si>
-    <t>民興國際開發</t>
-  </si>
-  <si>
-    <t>國揚實業股份有限公司</t>
-  </si>
-  <si>
-    <t>中國合成橡膠股份有限公司</t>
-  </si>
-  <si>
-    <t>9000000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>143290</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣500000元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>朱銘雕刻</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>得意還本終身</t>
-  </si>
-  <si>
-    <t>新富貴保本投資鏈結型保險第7期</t>
-  </si>
-  <si>
-    <t>創世變額萬能壽險</t>
-  </si>
-  <si>
-    <t>安泰增額養老壽險</t>
-  </si>
-  <si>
-    <t>台灣人壽富利長紅利率變動型年金保險</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>陳〇廷</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
   <si>
     <t>備註</t>
@@ -917,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,1167 +924,1220 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="2">
         <v>828</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2">
         <v>828</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" s="2">
         <v>828</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2">
         <v>828</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="2">
         <v>828</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2">
         <v>828</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2">
         <v>828</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" s="2">
         <v>828</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>253</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="2">
         <v>828</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>8.11</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="2">
-        <v>145980</v>
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" s="2">
         <v>828</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>8.11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>10.89</v>
+        <v>8.11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2">
-        <v>196020</v>
+        <v>145980</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="2">
         <v>828</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>10.89</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>338</v>
+        <v>10.89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="H13" s="2">
+        <v>196020</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="2">
         <v>828</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>338</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M14" s="2">
         <v>828</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>117</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2">
         <v>828</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>27297</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2">
         <v>828</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>27297</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>520</v>
+        <v>27297</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="2">
-        <v>8948</v>
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17" s="2">
         <v>828</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0202455590386625</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>10.5276907001045</v>
+        <v>27297</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>1540</v>
+        <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8948</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M18" s="2">
         <v>828</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0.0202455590386625</v>
       </c>
       <c r="Q18" s="2">
-        <v>1540</v>
+        <v>10.5276907001045</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>2308</v>
+        <v>1540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="2">
         <v>828</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>2308</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4425</v>
+        <v>2308</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20" s="2">
         <v>828</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>4425</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>1264</v>
+        <v>4425</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="2">
-        <v>872160</v>
+        <v>54</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M21" s="2">
         <v>828</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>1264</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>2450</v>
+        <v>1264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="H22" s="2">
+        <v>872160</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="2">
         <v>828</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>2450</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>1337</v>
+        <v>2450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="2">
-        <v>568225</v>
+        <v>54</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M23" s="2">
         <v>828</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1337</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="2">
+        <v>568225</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="2">
+      <c r="J24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="2">
+        <v>828</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="2">
         <v>37</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P24" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q24" s="2">
         <v>668.5</v>
       </c>
     </row>
@@ -2146,252 +2148,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1">
-        <v>353.36</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1">
-        <v>492300</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="2">
-        <v>163.18</v>
+        <v>353.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>363300</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>492300</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2">
+        <v>828</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="2">
+        <v>42</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>353.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="2">
-        <v>954.39</v>
+        <v>163.18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2">
+        <v>363300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2">
+        <v>828</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>163.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="2">
-        <v>300.11</v>
+        <v>954.39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2">
-        <v>878600</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2">
+        <v>828</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>954.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="2">
-        <v>404.75</v>
+        <v>300.11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2">
+        <v>878600</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2">
+        <v>828</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>300.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="2">
-        <v>216.6</v>
+        <v>404.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>828</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="2">
+        <v>46</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>404.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2">
+        <v>216.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>74</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>828</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="2">
+        <v>47</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>216.6</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2409,16 +2537,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2427,508 +2555,529 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>21409</v>
+        <v>42661</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>15335</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2902</v>
+        <v>15335</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>382</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>43147</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>50151</v>
+        <v>43147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>308</v>
+        <v>50151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1234</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>584741</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>93148</v>
+        <v>584741</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>8434</v>
+        <v>93148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>28410</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>104</v>
+        <v>28410</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10000</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>58000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>34002</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>2844</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>11224</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>2744</v>
+        <v>11224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>1179</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>1813</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>132</v>
+      <c r="G23" s="2">
+        <v>1813</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +3087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2952,13 +3101,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2987,222 +3136,266 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
-        <v>3440</v>
+        <v>725000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2">
-        <v>34400</v>
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
-        <v>900000</v>
+        <v>3440</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>94</v>
+      </c>
+      <c r="G3" s="2">
+        <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N3" s="2">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
-        <v>22596</v>
+        <v>900000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="2">
-        <v>225960</v>
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N4" s="2">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
-        <v>150000</v>
+        <v>22596</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
+      </c>
+      <c r="G5" s="2">
+        <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N5" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
-        <v>14329</v>
+        <v>150000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2">
-        <v>109</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14329</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2">
+        <v>828</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3405,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3220,164 +3413,162 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>500000</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
@@ -3385,26 +3576,45 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3414,30 +3624,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>138</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>1456500</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>台灣銀行</t>
@@ -2230,7 +2233,7 @@
         <v>492300</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>75</v>
@@ -2283,7 +2286,7 @@
         <v>363300</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>75</v>
@@ -2336,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>75</v>
@@ -2389,7 +2392,7 @@
         <v>878600</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>75</v>
@@ -2442,7 +2445,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>75</v>
@@ -2495,7 +2498,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>75</v>
@@ -2537,13 +2540,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>44</v>
@@ -2558,13 +2561,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
@@ -2579,13 +2582,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
@@ -2600,13 +2603,13 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
@@ -2621,13 +2624,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
@@ -2642,13 +2645,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
@@ -2663,13 +2666,13 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
@@ -2684,13 +2687,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
@@ -2705,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
@@ -2726,13 +2729,13 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
@@ -2747,13 +2750,13 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
@@ -2768,13 +2771,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
@@ -2789,13 +2792,13 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -2810,13 +2813,13 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
@@ -2831,13 +2834,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
@@ -2852,13 +2855,13 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -2873,13 +2876,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -2894,13 +2897,13 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>43</v>
@@ -2915,13 +2918,13 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>43</v>
@@ -2936,13 +2939,13 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
@@ -2957,13 +2960,13 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
@@ -2978,13 +2981,13 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
@@ -2999,16 +3002,16 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -3020,20 +3023,20 @@
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3041,20 +3044,20 @@
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3062,22 +3065,22 @@
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3101,13 +3104,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3139,7 +3142,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3151,13 +3154,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>75</v>
@@ -3183,7 +3186,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3195,13 +3198,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>75</v>
@@ -3227,7 +3230,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3239,13 +3242,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>75</v>
@@ -3271,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3283,13 +3286,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>75</v>
@@ -3315,7 +3318,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
@@ -3327,13 +3330,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>75</v>
@@ -3359,7 +3362,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3371,13 +3374,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>75</v>
@@ -3413,14 +3416,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3430,16 +3433,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3447,22 +3450,22 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3470,7 +3473,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3489,18 +3492,18 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3508,10 +3511,10 @@
         <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>44</v>
@@ -3519,7 +3522,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3527,10 +3530,10 @@
         <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -3538,7 +3541,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3546,10 +3549,10 @@
         <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
@@ -3557,7 +3560,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3565,10 +3568,10 @@
         <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
@@ -3576,7 +3579,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3584,10 +3587,10 @@
         <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -3595,7 +3598,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3603,18 +3606,18 @@
         <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3632,22 +3635,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3655,22 +3658,22 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -300,54 +300,63 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台灣銀行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>台灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市農會</t>
+  </si>
+  <si>
+    <t>新加坡商星展銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>香港上海匯豐銀行銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行東嘉義分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>台灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市農會</t>
-  </si>
-  <si>
-    <t>新加坡商星展銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>香港上海匯豐銀行銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>.新臺幣</t>
   </si>
   <si>
@@ -357,25 +366,13 @@
     <t>糜素惠</t>
   </si>
   <si>
-    <t>5018.43</t>
-  </si>
-  <si>
-    <t>1426</t>
-  </si>
-  <si>
-    <t>3029815</t>
-  </si>
-  <si>
-    <t>152635.55</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>亞太電信股份有限公司</t>
@@ -2532,13 +2529,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2549,538 +2546,1056 @@
         <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>42661</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
+        <v>828</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>21409</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
+        <v>828</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>15335</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>828</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>2902</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>828</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>382</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>828</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>43147</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
+        <v>828</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>50151</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
+        <v>828</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>828</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1234</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
+        <v>828</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>584741</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
+        <v>828</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>93148</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
+        <v>828</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>8434</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
+        <v>828</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>28410</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
+        <v>828</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2">
+        <v>828</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2">
+        <v>828</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>58000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="2">
+        <v>828</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>34002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2">
+        <v>828</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>2844</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2">
+        <v>828</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>11224</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2">
+        <v>828</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>2744</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="2">
+        <v>828</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>1179</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="2">
+        <v>828</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2">
         <v>1813</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="2">
+        <v>828</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>1426</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="2">
+        <v>828</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>3029815</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="2">
+        <v>828</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>112</v>
+      <c r="F26" s="2">
+        <v>152635.55</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>115</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="2">
+        <v>828</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3625,7 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3142,7 +3657,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3154,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>75</v>
@@ -3186,7 +3701,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3198,13 +3713,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>75</v>
@@ -3230,7 +3745,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3242,13 +3757,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>75</v>
@@ -3274,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3286,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>75</v>
@@ -3318,7 +3833,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
@@ -3330,13 +3845,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>75</v>
@@ -3362,7 +3877,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3374,13 +3889,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>75</v>
@@ -3416,14 +3931,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3433,16 +3948,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3450,22 +3965,22 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3473,7 +3988,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3492,18 +4007,18 @@
         <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3511,10 +4026,10 @@
         <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>44</v>
@@ -3522,7 +4037,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3530,10 +4045,10 @@
         <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -3541,7 +4056,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3549,10 +4064,10 @@
         <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
@@ -3560,7 +4075,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3568,10 +4083,10 @@
         <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
@@ -3579,7 +4094,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3587,10 +4102,10 @@
         <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -3598,7 +4113,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3606,18 +4121,18 @@
         <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3635,22 +4150,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3658,22 +4173,22 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -11,15 +11,16 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -408,42 +409,27 @@
     <t>stock</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣500000元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
     <t>朱銘雕刻</t>
   </si>
   <si>
-    <t>保險公司</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>得意還本終身</t>
+  </si>
+  <si>
+    <t>88.05.07108.05.7</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>得意還本終身</t>
-  </si>
-  <si>
     <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
@@ -456,28 +442,7 @@
     <t>台灣人壽富利長紅利率變動型年金保險</t>
   </si>
   <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>陳〇廷</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>88.05.07108.05.7</t>
   </si>
   <si>
     <t>100.06.13106.06.12</t>
@@ -3923,216 +3888,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2">
+        <v>828</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2">
         <v>120</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>122</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>123</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>124</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>125</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>126</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>127</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4141,6 +3973,135 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4150,22 +4111,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4173,22 +4134,22 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
+++ b/legislator/property/output/normal/陳明文_2011-11-23_財產申報表_tmpf421.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -412,24 +412,24 @@
     <t>朱銘雕刻</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
     <t>得意還本終身</t>
   </si>
   <si>
-    <t>88.05.07108.05.7</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
     <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
@@ -445,19 +445,13 @@
     <t>陳〇廷</t>
   </si>
   <si>
-    <t>100.06.13106.06.12</t>
-  </si>
-  <si>
-    <t>94.12.30100.12.30</t>
-  </si>
-  <si>
-    <t>94.12.30100.12.30(被保人:陳〇廷）</t>
-  </si>
-  <si>
-    <t>86.04.10101.04.10</t>
-  </si>
-  <si>
-    <t>97.05.19</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>一般借款</t>
@@ -466,13 +460,13 @@
     <t>嘉義縣朴子市農會本會嘉義縣朴子市山通路</t>
   </si>
   <si>
-    <t>7425233</t>
-  </si>
-  <si>
     <t>98年12月20日</t>
   </si>
   <si>
     <t>償還擔保債務&amp;房屋整修&amp;新建房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3974,49 +3968,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2">
+        <v>828</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>136</v>
@@ -4027,13 +4057,31 @@
       <c r="E3" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2">
+        <v>828</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>137</v>
@@ -4042,15 +4090,33 @@
         <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2">
+        <v>828</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>137</v>
@@ -4059,15 +4125,33 @@
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2">
+        <v>828</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>138</v>
@@ -4076,15 +4160,33 @@
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2">
+        <v>828</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>139</v>
@@ -4093,7 +4195,25 @@
         <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2">
+        <v>828</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4103,53 +4223,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7425233</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>150</v>
+      <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2">
+        <v>828</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
